--- a/DailyMeetingsSprint1.xlsx
+++ b/DailyMeetingsSprint1.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\Studium\UB\Agile_Data_Science\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCA891-28DC-4461-AF17-AE70EFF9B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061E5EB-B494-4581-9F16-876C07DBAB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="7" xr2:uid="{B11363CB-7C5B-4D27-9E34-1A1E54A82769}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="10" xr2:uid="{B11363CB-7C5B-4D27-9E34-1A1E54A82769}"/>
   </bookViews>
   <sheets>
-    <sheet name="14.11.2022" sheetId="2" r:id="rId1"/>
-    <sheet name="15.11.2022" sheetId="5" r:id="rId2"/>
-    <sheet name="16.11.2022" sheetId="6" r:id="rId3"/>
-    <sheet name="17.11.2022" sheetId="3" r:id="rId4"/>
-    <sheet name="18.11.2022" sheetId="4" r:id="rId5"/>
-    <sheet name="21.11.2022" sheetId="7" r:id="rId6"/>
-    <sheet name="22.11.2022" sheetId="8" r:id="rId7"/>
-    <sheet name="Template" sheetId="1" r:id="rId8"/>
+    <sheet name="11.11.2022" sheetId="11" r:id="rId1"/>
+    <sheet name="14.11.2022" sheetId="2" r:id="rId2"/>
+    <sheet name="15.11.2022" sheetId="5" r:id="rId3"/>
+    <sheet name="16.11.2022" sheetId="6" r:id="rId4"/>
+    <sheet name="17.11.2022" sheetId="3" r:id="rId5"/>
+    <sheet name="18.11.2022" sheetId="4" r:id="rId6"/>
+    <sheet name="21.11.2022" sheetId="7" r:id="rId7"/>
+    <sheet name="22.11.2022" sheetId="8" r:id="rId8"/>
+    <sheet name="23.11.2022" sheetId="9" r:id="rId9"/>
+    <sheet name="24.11.2022" sheetId="10" r:id="rId10"/>
+    <sheet name="Template" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="147">
   <si>
     <t>Date:</t>
   </si>
@@ -51,9 +54,6 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Late</t>
-  </si>
-  <si>
     <t>Absent</t>
   </si>
   <si>
@@ -189,9 +189,6 @@
     <t>there are several genres, how do we treat them? We need to convert the time. We need to change data types of certain categories, e.g. integer for id etc.</t>
   </si>
   <si>
-    <t>Hannah(14:10)</t>
-  </si>
-  <si>
     <t>Dealing with missing values</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>16.11.2022, 18:10</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>We could clarify the task further and developed a model for a reccomender based on nn.</t>
   </si>
   <si>
@@ -379,6 +373,120 @@
   </si>
   <si>
     <t>22.11.2022 after Daily Scrum, 18:10</t>
+  </si>
+  <si>
+    <t>We need to update the Issues on Github. We dont undersand the SCRUMBAN. Alessia will ask a colleague.</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>23.11.2022, 13:30</t>
+  </si>
+  <si>
+    <t>Continue looking at the categories.</t>
+  </si>
+  <si>
+    <t>Discuss something with Berk. Did not understand how to run the code.</t>
+  </si>
+  <si>
+    <t>Cleaned the code for the presentation.</t>
+  </si>
+  <si>
+    <t>Write some tests for the written code.</t>
+  </si>
+  <si>
+    <t>Converted tasks to issues.</t>
+  </si>
+  <si>
+    <t>Please check, whether it is doone correctly @ team.</t>
+  </si>
+  <si>
+    <t>Confusion about available tasks.</t>
+  </si>
+  <si>
+    <t>Looked at new tasks.</t>
+  </si>
+  <si>
+    <t>Do another task, TBA.</t>
+  </si>
+  <si>
+    <t>Started with the model comparison, read the documentation of the sequential models.</t>
+  </si>
+  <si>
+    <t>Continue with the comparison of models.</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>23.11.2022</t>
+  </si>
+  <si>
+    <t>24.11.2022 14-16</t>
+  </si>
+  <si>
+    <t>Alessia, Berk</t>
+  </si>
+  <si>
+    <t>Code of Visualisation</t>
+  </si>
+  <si>
+    <t>23.11.2022 18:10</t>
+  </si>
+  <si>
+    <t>You can always just assign yourself a new task.</t>
+  </si>
+  <si>
+    <t>Read a lot in the .py files of spotlight in many different folders (evaluate, examples/sequence, losses, datasets/movielense). Evaluated the sequential models and uploaded the notebook to GitHub. The pooling model is the winner.</t>
+  </si>
+  <si>
+    <t>24.11.2022</t>
+  </si>
+  <si>
+    <t>Demo preparation</t>
+  </si>
+  <si>
+    <t>After Daily Scrum today</t>
+  </si>
+  <si>
+    <t>Did not understand that the categories needed to be separated.</t>
+  </si>
+  <si>
+    <t>Looked at the categories. There are many "unique" categories.</t>
+  </si>
+  <si>
+    <t>Separete the categories and plot their appearance/distribution.</t>
+  </si>
+  <si>
+    <t>Start with the tests.</t>
+  </si>
+  <si>
+    <t>Nothing.</t>
+  </si>
+  <si>
+    <t>Time.</t>
+  </si>
+  <si>
+    <t>Order the output of the explicit model.</t>
+  </si>
+  <si>
+    <t>To look at the distribution</t>
+  </si>
+  <si>
+    <t>Only committed, did not yet push.</t>
+  </si>
+  <si>
+    <t>Push the results. Upload the Daily meeting records.</t>
+  </si>
+  <si>
+    <t>This meeting was replaced with a meeting to transform the Epics into User Stories, assign Size with SCRUM Poker, discuss Priority and discuss the Sprint.</t>
+  </si>
+  <si>
+    <t>We should all look at the spotlight repository to understand the overall task of this project.</t>
   </si>
 </sst>
 </file>
@@ -772,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06334D3D-E1F6-4D05-80C7-587AC2F50F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1018F63A-44CC-4405-8921-E7AC61E6C9E7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,11 +896,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -800,16 +908,16 @@
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -820,108 +928,394 @@
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39448D1-90B1-4647-8B0C-2D2AFB48DB4B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="4" width="40.6328125" customWidth="1"/>
+    <col min="7" max="7" width="48.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACD026A-CBF3-4CE6-9BF5-A88A842A2187}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="4" width="40.6328125" customWidth="1"/>
+    <col min="7" max="7" width="48.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -931,6 +1325,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06334D3D-E1F6-4D05-80C7-587AC2F50F61}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="4" width="40.6328125" customWidth="1"/>
+    <col min="7" max="7" width="48.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4911B2AA-711A-43DD-BF56-25A8FAA74CAF}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -947,11 +1498,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -959,30 +1510,30 @@
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -990,12 +1541,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1004,26 +1555,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1031,7 +1576,7 @@
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1039,29 +1584,32 @@
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +1621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91230CB9-FC11-49A5-BCBC-66AFF9833443}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,11 +1638,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1102,22 +1650,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7">
         <v>0.76041666666666663</v>
@@ -1125,104 +1673,101 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1231,12 +1776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818A132-9509-49A6-8EC9-011DF1AF213F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,11 +1793,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1260,22 +1805,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="7">
         <v>0.58333333333333337</v>
@@ -1283,132 +1828,126 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1416,12 +1955,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F396B0F5-1636-4813-966F-5E719D6ACF1A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1433,11 +1972,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1445,22 +1984,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="7">
         <v>0.58333333333333337</v>
@@ -1468,67 +2007,61 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1536,72 +2069,72 @@
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7">
         <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7">
         <v>0.625</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +2142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF3E0D1-E0C0-4963-B362-597450EB24CC}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,11 +2159,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1638,22 +2171,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0.57291666666666663</v>
@@ -1661,7 +2194,7 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1670,44 +2203,38 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1715,68 +2242,68 @@
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1785,12 +2312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4370A96-E0C1-44DC-90F2-FE30F38E9FC8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1802,11 +2329,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1814,22 +2341,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0.54166666666666663</v>
@@ -1837,133 +2364,133 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1973,12 +2500,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACD026A-CBF3-4CE6-9BF5-A88A842A2187}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFBE94F-CF4E-47F0-B274-0D6C7A2AFF27}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1988,98 +2515,165 @@
     <col min="7" max="7" width="48.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
